--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>сладкий</t>
+  </si>
+  <si>
+    <t>chily</t>
+  </si>
+  <si>
+    <t>острый</t>
+  </si>
+  <si>
+    <t>snacks</t>
+  </si>
+  <si>
+    <t>соленые</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>жирное</t>
   </si>
 </sst>
 </file>
@@ -372,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -399,7 +417,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -410,7 +428,40 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
